--- a/data/outputs/management_elsevier/81.xlsx
+++ b/data/outputs/management_elsevier/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS157"/>
+  <dimension ref="A1:BU157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,16 @@
       <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>eid</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
         </is>
       </c>
     </row>
@@ -915,6 +925,12 @@
           <t>2-s2.0-84950997028</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>457</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1112,6 +1128,12 @@
           <t>2-s2.0-84937691737</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1313,6 +1335,12 @@
           <t>2-s2.0-84928914483</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2206</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1556,12 @@
           <t>2-s2.0-84929915520</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>5972</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1747,6 +1781,12 @@
           <t>2-s2.0-84930735329</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>2496</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1951,6 +1991,12 @@
         <is>
           <t>2-s2.0-84930358647</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>3054</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2153,6 +2199,12 @@
           <t>2-s2.0-84936136082</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>7959</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2364,6 +2416,12 @@
           <t>2-s2.0-84929629407</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>14081</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2569,6 +2627,12 @@
           <t>2-s2.0-84928189397</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1744</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2774,6 +2838,12 @@
           <t>2-s2.0-84930012155</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2983,6 +3053,12 @@
           <t>2-s2.0-84929630185</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>4595</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3200,6 +3276,12 @@
           <t>2-s2.0-84929612893</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2127</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3409,6 +3491,12 @@
           <t>2-s2.0-84930020719</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1142</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3614,6 +3702,12 @@
           <t>2-s2.0-84937239575</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3664</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3835,6 +3929,12 @@
           <t>2-s2.0-84929439141</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>14054</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4050,6 +4150,12 @@
           <t>2-s2.0-84959077335</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>5097</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4269,6 +4375,12 @@
           <t>2-s2.0-84929936391</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>9739</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4485,6 +4597,12 @@
         <is>
           <t>2-s2.0-84930360736</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>2344</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -4679,6 +4797,12 @@
           <t>2-s2.0-84952630787</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>458</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4896,6 +5020,12 @@
           <t>2-s2.0-84952629882</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2716</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5093,6 +5223,12 @@
           <t>2-s2.0-84952629692</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>885</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5314,6 +5450,12 @@
           <t>2-s2.0-84952630042</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>4455</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5529,6 +5671,12 @@
           <t>2-s2.0-84952630823</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1330</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5742,6 +5890,12 @@
           <t>2-s2.0-84952628163</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1084</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5955,6 +6109,12 @@
           <t>2-s2.0-84952630177</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1603</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6164,6 +6324,12 @@
           <t>2-s2.0-84952631159</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2934</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6389,6 +6555,12 @@
           <t>2-s2.0-84952628708</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2373</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6616,6 +6788,12 @@
           <t>2-s2.0-84952628437</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>33185</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6825,6 +7003,12 @@
           <t>2-s2.0-84952629101</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>4963</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7030,6 +7214,12 @@
           <t>2-s2.0-84952630638</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>3757</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7235,6 +7425,12 @@
           <t>2-s2.0-84952628433</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>3413</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7448,6 +7644,12 @@
           <t>2-s2.0-84952629013</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1879</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7661,6 +7863,12 @@
           <t>2-s2.0-84944911293</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>4710</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7874,6 +8082,12 @@
           <t>2-s2.0-84952629976</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2530</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8094,6 +8308,12 @@
         <is>
           <t>2-s2.0-84952628703</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>1686</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -8288,6 +8508,12 @@
           <t>2-s2.0-84938293598</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>385</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8489,6 +8715,12 @@
           <t>2-s2.0-84938293471</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1555</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8702,6 +8934,12 @@
           <t>2-s2.0-84938289429</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>897</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8915,6 +9153,12 @@
           <t>2-s2.0-84938288657</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1324</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9128,6 +9372,12 @@
           <t>2-s2.0-84938289957</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1673</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9333,6 +9583,12 @@
           <t>2-s2.0-84938289696</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9550,6 +9806,12 @@
           <t>2-s2.0-84949740277</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2656</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9759,6 +10021,12 @@
           <t>2-s2.0-84938291711</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3603</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9976,6 +10244,12 @@
           <t>2-s2.0-84938289544</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>4558</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10195,6 +10469,12 @@
           <t>2-s2.0-84938286442</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>3190</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10400,6 +10680,12 @@
           <t>2-s2.0-84938294281</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1687</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10605,6 +10891,12 @@
           <t>2-s2.0-84938287280</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1459</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10814,6 +11106,12 @@
           <t>2-s2.0-84938293827</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1928</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11027,6 +11325,12 @@
           <t>2-s2.0-84938285010</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1937</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11248,6 +11552,12 @@
           <t>2-s2.0-84955205420</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>3759</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11461,6 +11771,12 @@
           <t>2-s2.0-84938286258</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>7192</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11681,6 +11997,12 @@
         <is>
           <t>2-s2.0-84938287500</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>6351</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -11879,6 +12201,12 @@
           <t>2-s2.0-84952630472</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>307</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12088,6 +12416,12 @@
           <t>2-s2.0-84952630666</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2420</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12297,6 +12631,12 @@
           <t>2-s2.0-84952628791</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1518</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12510,6 +12850,12 @@
           <t>2-s2.0-84952630100</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1750</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12737,6 +13083,12 @@
           <t>2-s2.0-84952629843</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2777</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12954,6 +13306,12 @@
           <t>2-s2.0-84952628725</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1208</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13167,6 +13525,12 @@
           <t>2-s2.0-84952631038</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1193</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13384,6 +13748,12 @@
           <t>2-s2.0-84952628406</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>834</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13596,6 +13966,12 @@
         <is>
           <t>2-s2.0-84943752617</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>1456</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -13806,6 +14182,12 @@
           <t>2-s2.0-84952629957</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>1632</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14015,6 +14397,12 @@
           <t>2-s2.0-84952628399</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>921</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14224,6 +14612,12 @@
           <t>2-s2.0-84952631207</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1325</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14443,6 +14837,12 @@
           <t>2-s2.0-84952630871</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>3377</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14660,6 +15060,12 @@
           <t>2-s2.0-84952629691</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1264</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14879,6 +15285,12 @@
           <t>2-s2.0-84952630158</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1876</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15098,6 +15510,12 @@
           <t>2-s2.0-84952628272</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>2865</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15310,6 +15728,12 @@
         <is>
           <t>2-s2.0-84949751207</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -15524,6 +15948,12 @@
           <t>2-s2.0-84952631255</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1298</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15747,6 +16177,12 @@
           <t>2-s2.0-84952628428</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1453</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15959,6 +16395,12 @@
         <is>
           <t>2-s2.0-84952630533</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>2542</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -16165,6 +16607,12 @@
       <c r="BQ74" t="inlineStr"/>
       <c r="BR74" t="inlineStr"/>
       <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16374,6 +16822,12 @@
           <t>2-s2.0-84952630201</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>2339</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16583,6 +17037,12 @@
           <t>2-s2.0-84930178427</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2693</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16804,6 +17264,12 @@
           <t>2-s2.0-84930179591</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>4089</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17022,6 +17488,12 @@
         <is>
           <t>2-s2.0-84930177771</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>2942</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -17231,6 +17703,12 @@
         <is>
           <t>2-s2.0-84930181153</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>2444</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -17439,6 +17917,12 @@
           <t>2-s2.0-84930183296</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>2669</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17650,6 +18134,12 @@
           <t>2-s2.0-84930179417</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>4489</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17874,6 +18364,12 @@
         <is>
           <t>2-s2.0-84930177342</t>
         </is>
+      </c>
+      <c r="BT82" t="n">
+        <v>2188</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -18084,6 +18580,12 @@
           <t>2-s2.0-84930182799</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>3448</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18303,6 +18805,12 @@
           <t>2-s2.0-84930182980</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>7776</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18520,6 +19028,12 @@
           <t>2-s2.0-84930177266</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>4671</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18737,6 +19251,12 @@
           <t>2-s2.0-84930177839</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>5472</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18958,6 +19478,12 @@
           <t>2-s2.0-84930181705</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>2153</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19171,6 +19697,12 @@
           <t>2-s2.0-84930182307</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>4478</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19383,6 +19915,12 @@
         <is>
           <t>2-s2.0-84930182276</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>3243</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -19581,6 +20119,12 @@
           <t>2-s2.0-84930178215</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>464</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19810,6 +20354,12 @@
           <t>2-s2.0-84930180907</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>15377</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20035,6 +20585,12 @@
           <t>2-s2.0-84930177369</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>5323</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20251,6 +20807,12 @@
         <is>
           <t>2-s2.0-84930178223</t>
         </is>
+      </c>
+      <c r="BT93" t="n">
+        <v>8777</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="94">
@@ -20461,6 +21023,12 @@
           <t>2-s2.0-84930179462</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2478</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20669,6 +21237,12 @@
         <is>
           <t>2-s2.0-84930181017</t>
         </is>
+      </c>
+      <c r="BT95" t="n">
+        <v>4278</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -20867,6 +21441,12 @@
           <t>2-s2.0-84926419103</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>397</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21072,6 +21652,12 @@
           <t>2-s2.0-84926421803</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>3600</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21281,6 +21867,12 @@
           <t>2-s2.0-84926420592</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>10155</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21502,6 +22094,12 @@
           <t>2-s2.0-84926418087</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>2274</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21707,6 +22305,12 @@
           <t>2-s2.0-84926417799</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>6152</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21912,6 +22516,12 @@
           <t>2-s2.0-84926421062</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>2888</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22127,6 +22737,12 @@
           <t>2-s2.0-84926407619</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>6780</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22340,6 +22956,12 @@
           <t>2-s2.0-84926418797</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>2355</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22545,6 +23167,12 @@
           <t>2-s2.0-84926421718</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1071</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22762,6 +23390,12 @@
           <t>2-s2.0-84926409709</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>4079</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22967,6 +23601,12 @@
           <t>2-s2.0-84926408634</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>5542</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23180,6 +23820,12 @@
           <t>2-s2.0-84926422001</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>1620</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23397,6 +24043,12 @@
           <t>2-s2.0-84926409053</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>2876</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23618,6 +24270,12 @@
           <t>2-s2.0-84926406952</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1837</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23831,6 +24489,12 @@
           <t>2-s2.0-84926407822</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>2492</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24044,6 +24708,12 @@
           <t>2-s2.0-84926417669</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>4763</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24257,6 +24927,12 @@
           <t>2-s2.0-84926335078</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>3269</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24474,6 +25150,12 @@
           <t>2-s2.0-84926419695</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>4021</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24687,6 +25369,12 @@
           <t>2-s2.0-84926420620</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>1988</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24899,6 +25587,12 @@
         <is>
           <t>2-s2.0-84926416618</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>2190</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="116">
@@ -25093,6 +25787,12 @@
           <t>2-s2.0-84932192552</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>429</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25302,6 +26002,12 @@
           <t>2-s2.0-84932195499</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>4388</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25515,6 +26221,12 @@
           <t>2-s2.0-84932193924</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>3168</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25720,6 +26432,12 @@
           <t>2-s2.0-84932193972</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>884</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25925,6 +26643,12 @@
           <t>2-s2.0-84932199792</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>3472</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26138,6 +26862,12 @@
           <t>2-s2.0-84932197724</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>2273</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26351,6 +27081,12 @@
           <t>2-s2.0-84932194358</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>4121</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26556,6 +27292,12 @@
           <t>2-s2.0-84932198292</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>661</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26761,6 +27503,12 @@
           <t>2-s2.0-84932196142</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>631</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26986,6 +27734,12 @@
           <t>2-s2.0-84930182960</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>6316</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27190,6 +27944,12 @@
         <is>
           <t>2-s2.0-84932197896</t>
         </is>
+      </c>
+      <c r="BT126" t="n">
+        <v>3302</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -27400,6 +28160,12 @@
           <t>2-s2.0-84932198209</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>657</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27613,6 +28379,12 @@
           <t>2-s2.0-84932199432</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>1306</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27834,6 +28606,12 @@
           <t>2-s2.0-84932196036</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>3092</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28039,6 +28817,12 @@
           <t>2-s2.0-84932192907</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>2465</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28252,6 +29036,12 @@
           <t>2-s2.0-84932199710</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>4199</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28457,6 +29247,12 @@
           <t>2-s2.0-84932192258</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>2036</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28672,6 +29468,12 @@
           <t>2-s2.0-84926421118</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>2064</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28877,6 +29679,12 @@
           <t>2-s2.0-84926418157</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1500</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29086,6 +29894,12 @@
           <t>2-s2.0-84932195850</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>7143</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29307,6 +30121,12 @@
           <t>2-s2.0-84932199207</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>10557</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29522,6 +30342,12 @@
           <t>2-s2.0-84932195329</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>5749</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29737,6 +30563,12 @@
           <t>2-s2.0-84932193566</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>12220</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29953,6 +30785,12 @@
         <is>
           <t>2-s2.0-84926415160</t>
         </is>
+      </c>
+      <c r="BT139" t="n">
+        <v>3135</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="140">
@@ -30147,6 +30985,12 @@
           <t>2-s2.0-84921055027</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>573</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30362,6 +31206,12 @@
           <t>2-s2.0-84920996828</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>5287</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30567,6 +31417,12 @@
           <t>2-s2.0-84921029680</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>1739</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30772,6 +31628,12 @@
           <t>2-s2.0-84920996834</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>2334</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30979,6 +31841,12 @@
           <t>2-s2.0-84920964370</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>1285</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31192,6 +32060,12 @@
           <t>2-s2.0-84921024399</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>2083</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31401,6 +32275,12 @@
           <t>2-s2.0-84921026511</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>1603</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31616,6 +32496,12 @@
           <t>2-s2.0-84921019887</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>3726</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31821,6 +32707,12 @@
           <t>2-s2.0-84921019063</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>2264</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32026,6 +32918,12 @@
           <t>2-s2.0-84921061624</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>2412</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32235,6 +33133,12 @@
           <t>2-s2.0-84921021137</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>4248</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32444,6 +33348,12 @@
           <t>2-s2.0-84920984470</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>6647</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32651,6 +33561,12 @@
           <t>2-s2.0-84920999833</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32862,6 +33778,12 @@
           <t>2-s2.0-84920941442</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>18459</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33075,6 +33997,12 @@
           <t>2-s2.0-84921048872</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>3301</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33290,6 +34218,12 @@
           <t>2-s2.0-84921024222</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>9206</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33503,6 +34437,12 @@
           <t>2-s2.0-84921020452</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>6178</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33714,6 +34654,12 @@
           <t>2-s2.0-84920984041</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>5749</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
